--- a/results/mp/logistic/corona/confidence/210/desired-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/desired-masking-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,39 +46,39 @@
     <t>die</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>falling</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -88,6 +88,9 @@
     <t>lower</t>
   </si>
   <si>
+    <t>cut</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -100,6 +103,21 @@
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -112,70 +130,79 @@
     <t>free</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>fresh</t>
+    <t>like</t>
   </si>
   <si>
     <t>won</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>save</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>well</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>well</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>care</t>
@@ -184,25 +211,22 @@
     <t>share</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
+    <t>you</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -560,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,10 +592,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -629,28 +653,28 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9210526315789473</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C3">
+        <v>36</v>
+      </c>
+      <c r="D3">
+        <v>36</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D3">
-        <v>35</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -700,7 +724,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K4">
         <v>0.9696969696969697</v>
@@ -729,13 +753,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9117647058823529</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -747,19 +771,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="L5">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M5">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -771,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -779,13 +803,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8888888888888888</v>
+        <v>0.863013698630137</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>252</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>252</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -797,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K6">
-        <v>0.9444444444444444</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L6">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="M6">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -821,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -829,13 +853,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8664383561643836</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C7">
-        <v>253</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>253</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -847,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="K7">
-        <v>0.9322033898305084</v>
+        <v>0.9148936170212766</v>
       </c>
       <c r="L7">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="M7">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -879,13 +903,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8333333333333334</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -897,19 +921,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="K8">
-        <v>0.9112271540469974</v>
+        <v>0.9086161879895561</v>
       </c>
       <c r="L8">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M8">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -921,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -929,13 +953,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7948717948717948</v>
+        <v>0.725</v>
       </c>
       <c r="C9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -947,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K9">
         <v>0.9069767441860465</v>
@@ -979,13 +1003,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -997,19 +1021,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K10">
-        <v>0.8984375</v>
+        <v>0.89375</v>
       </c>
       <c r="L10">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="M10">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1021,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1029,13 +1053,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6878306878306878</v>
+        <v>0.686046511627907</v>
       </c>
       <c r="C11">
-        <v>130</v>
+        <v>354</v>
       </c>
       <c r="D11">
-        <v>130</v>
+        <v>354</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1047,19 +1071,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K11">
-        <v>0.8873239436619719</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L11">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="M11">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1071,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1079,13 +1103,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6821705426356589</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C12">
-        <v>352</v>
+        <v>126</v>
       </c>
       <c r="D12">
-        <v>352</v>
+        <v>126</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1097,19 +1121,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="K12">
-        <v>0.8839285714285714</v>
+        <v>0.8873239436619719</v>
       </c>
       <c r="L12">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="M12">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1121,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1129,13 +1153,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6779661016949152</v>
+        <v>0.6610169491525424</v>
       </c>
       <c r="C13">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1147,19 +1171,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K13">
-        <v>0.88125</v>
+        <v>0.8828125</v>
       </c>
       <c r="L13">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="M13">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1171,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1179,38 +1203,38 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6174496644295302</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="C14">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>14</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14">
+        <v>0.8679245283018868</v>
+      </c>
+      <c r="L14">
         <v>92</v>
       </c>
-      <c r="D14">
+      <c r="M14">
         <v>92</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>57</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14">
-        <v>0.8773584905660378</v>
-      </c>
-      <c r="L14">
-        <v>93</v>
-      </c>
-      <c r="M14">
-        <v>93</v>
-      </c>
       <c r="N14">
         <v>1</v>
       </c>
@@ -1221,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1229,13 +1253,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5882352941176471</v>
+        <v>0.6107382550335571</v>
       </c>
       <c r="C15">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="D15">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1247,19 +1271,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>0.8723404255319149</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L15">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="M15">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1271,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1279,13 +1303,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.575</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C16">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D16">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1297,19 +1321,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="K16">
-        <v>0.8658536585365854</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L16">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1321,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1329,13 +1353,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4727272727272727</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C17">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D17">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1347,19 +1371,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K17">
-        <v>0.8620689655172413</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L17">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="M17">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1371,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1379,13 +1403,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4642857142857143</v>
+        <v>0.5178571428571429</v>
       </c>
       <c r="C18">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D18">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1397,19 +1421,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K18">
-        <v>0.8611111111111112</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L18">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="M18">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1421,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1429,13 +1453,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4266666666666667</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="C19">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D19">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1447,10 +1471,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="K19">
         <v>0.8253968253968254</v>
@@ -1479,13 +1503,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4</v>
+        <v>0.5066666666666667</v>
       </c>
       <c r="C20">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D20">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1497,19 +1521,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="K20">
-        <v>0.825</v>
+        <v>0.8125</v>
       </c>
       <c r="L20">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="M20">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1521,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1529,13 +1553,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3134920634920635</v>
+        <v>0.3444444444444444</v>
       </c>
       <c r="C21">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="D21">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1547,19 +1571,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>173</v>
+        <v>59</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K21">
-        <v>0.8125</v>
+        <v>0.8</v>
       </c>
       <c r="L21">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1571,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1579,13 +1603,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1742627345844504</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="C22">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D22">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1597,175 +1621,319 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>308</v>
+        <v>175</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="K22">
-        <v>0.7948717948717948</v>
+        <v>0.7441176470588236</v>
       </c>
       <c r="L22">
+        <v>253</v>
+      </c>
+      <c r="M22">
+        <v>253</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>0.1447721179624665</v>
+      </c>
+      <c r="C23">
+        <v>54</v>
+      </c>
+      <c r="D23">
+        <v>54</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>319</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K23">
+        <v>0.7435897435897436</v>
+      </c>
+      <c r="L23">
+        <v>29</v>
+      </c>
+      <c r="M23">
+        <v>29</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>0.09333333333333334</v>
+      </c>
+      <c r="C24">
+        <v>28</v>
+      </c>
+      <c r="D24">
+        <v>28</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>272</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K24">
+        <v>0.7220338983050848</v>
+      </c>
+      <c r="L24">
+        <v>213</v>
+      </c>
+      <c r="M24">
+        <v>213</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0.0164463076426959</v>
+      </c>
+      <c r="C25">
+        <v>51</v>
+      </c>
+      <c r="D25">
+        <v>57</v>
+      </c>
+      <c r="E25">
+        <v>0.11</v>
+      </c>
+      <c r="F25">
+        <v>0.89</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>3050</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K25">
+        <v>0.72</v>
+      </c>
+      <c r="L25">
+        <v>36</v>
+      </c>
+      <c r="M25">
+        <v>36</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M22">
-        <v>31</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K23">
-        <v>0.7714285714285715</v>
-      </c>
-      <c r="L23">
+      <c r="B26">
+        <v>0.01474926253687316</v>
+      </c>
+      <c r="C26">
+        <v>35</v>
+      </c>
+      <c r="D26">
+        <v>41</v>
+      </c>
+      <c r="E26">
+        <v>0.15</v>
+      </c>
+      <c r="F26">
+        <v>0.85</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>2338</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K26">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L26">
+        <v>25</v>
+      </c>
+      <c r="M26">
+        <v>25</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>0.006834170854271356</v>
+      </c>
+      <c r="C27">
+        <v>34</v>
+      </c>
+      <c r="D27">
+        <v>55</v>
+      </c>
+      <c r="E27">
+        <v>0.38</v>
+      </c>
+      <c r="F27">
+        <v>0.62</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>4941</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27">
+        <v>0.7127659574468085</v>
+      </c>
+      <c r="L27">
+        <v>67</v>
+      </c>
+      <c r="M27">
+        <v>67</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>27</v>
       </c>
-      <c r="M23">
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>0.005245774237419856</v>
+      </c>
+      <c r="C28">
         <v>27</v>
       </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K24">
-        <v>0.7470588235294118</v>
-      </c>
-      <c r="L24">
-        <v>254</v>
-      </c>
-      <c r="M24">
-        <v>254</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K25">
-        <v>0.7220338983050848</v>
-      </c>
-      <c r="L25">
-        <v>213</v>
-      </c>
-      <c r="M25">
-        <v>213</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K26">
-        <v>0.702928870292887</v>
-      </c>
-      <c r="L26">
-        <v>168</v>
-      </c>
-      <c r="M26">
-        <v>168</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K27">
-        <v>0.7021276595744681</v>
-      </c>
-      <c r="L27">
-        <v>66</v>
-      </c>
-      <c r="M27">
-        <v>66</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="D28">
+        <v>45</v>
+      </c>
+      <c r="E28">
+        <v>0.4</v>
+      </c>
+      <c r="F28">
+        <v>0.6</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>5120</v>
+      </c>
       <c r="J28" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="K28">
-        <v>0.6966292134831461</v>
+        <v>0.694560669456067</v>
       </c>
       <c r="L28">
-        <v>62</v>
+        <v>166</v>
       </c>
       <c r="M28">
-        <v>62</v>
+        <v>166</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1777,21 +1945,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>27</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="K29">
-        <v>0.6714285714285714</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L29">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="M29">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1803,21 +1971,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="K30">
-        <v>0.6615384615384615</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L30">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M30">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1829,73 +1997,73 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="K31">
-        <v>0.66</v>
+        <v>0.6292134831460674</v>
       </c>
       <c r="L31">
+        <v>56</v>
+      </c>
+      <c r="M31">
+        <v>56</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>33</v>
-      </c>
-      <c r="M31">
-        <v>33</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="K32">
-        <v>0.6222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="L32">
+        <v>42</v>
+      </c>
+      <c r="M32">
+        <v>42</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>28</v>
-      </c>
-      <c r="M32">
-        <v>28</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>17</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K33">
-        <v>0.5294117647058824</v>
+        <v>0.53125</v>
       </c>
       <c r="L33">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M33">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1907,21 +2075,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="K34">
-        <v>0.5068493150684932</v>
+        <v>0.5081967213114754</v>
       </c>
       <c r="L34">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="M34">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1933,21 +2101,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K35">
-        <v>0.484375</v>
+        <v>0.4743589743589743</v>
       </c>
       <c r="L35">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M35">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1959,21 +2127,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K36">
-        <v>0.4743589743589743</v>
+        <v>0.4657534246575342</v>
       </c>
       <c r="L36">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M36">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1985,7 +2153,59 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>41</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K37">
+        <v>0.03753127606338615</v>
+      </c>
+      <c r="L37">
+        <v>45</v>
+      </c>
+      <c r="M37">
+        <v>46</v>
+      </c>
+      <c r="N37">
+        <v>0.98</v>
+      </c>
+      <c r="O37">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K38">
+        <v>0.008774678784080225</v>
+      </c>
+      <c r="L38">
+        <v>28</v>
+      </c>
+      <c r="M38">
+        <v>38</v>
+      </c>
+      <c r="N38">
+        <v>0.74</v>
+      </c>
+      <c r="O38">
+        <v>0.26</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>3163</v>
       </c>
     </row>
   </sheetData>
